--- a/biology/Zoologie/Heliconius_congener/Heliconius_congener.xlsx
+++ b/biology/Zoologie/Heliconius_congener/Heliconius_congener.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius congener est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,13 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius congener a été décrit par Gustav Weymer en 1890[1].
-Sous-espèces
-Heliconius congener congener; présent en Équateur et au Pérou.
-Heliconius congener aquilionaris Brown, 1976; présent en Colombie.
-Heliconius congener ocannensis Stichel, 1905; présent en Colombie[1],[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius congener a été décrit par Gustav Weymer en 1890.
+</t>
         </is>
       </c>
     </row>
@@ -542,86 +553,98 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius congener congener; présent en Équateur et au Pérou.
+Heliconius congener aquilionaris Brown, 1976; présent en Colombie.
+Heliconius congener ocannensis Stichel, 1905; présent en Colombie,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_congener</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_congener</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius congener ressemble (mimétisme Müllerien) à Heliconius sara, Heliconius leucadia et Heliconius wallacei[3].
-C'est un grand papillon d'une envergure d'environ 75 mm, aux ailes allongées et arrondies[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius congener ressemble (mimétisme Müllerien) à Heliconius sara, Heliconius leucadia et Heliconius wallacei.
+C'est un grand papillon d'une envergure d'environ 75 mm, aux ailes allongées et arrondies.
 Le dessus est de couleur marron foncé suffusé ou non de bleu outremer dans la partie basale, et les ailes antérieures sont doublement barrées de blanc ou jaune pâle, d'une bande irrégulière allant de la moitié du bord costal à l'angle interne et une bande étroite séparant l'apex du reste de l'aile.
 Le revers est marron plus clair avec les mêmes bandes aux ailes antérieures et des points rouges dans l'aire basale.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_congener</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_congener</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae (Astrophea)[3].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae (Astrophea).
 Sur les autres projets Wikimedia :
 Heliconius congener, sur Wikimedia CommonsHeliconius congener, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_congener</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_congener</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius congener est présent en Colombie, en Équateur et au Pérou[1].
-Biotope
-Heliconius congener réside en montagne à une altitude entre 600 m et 2 000 m, dans la canopée de la forêt[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -643,10 +666,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius congener est présent en Colombie, en Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_congener</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_congener</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius congener réside en montagne à une altitude entre 600 m et 2 000 m, dans la canopée de la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_congener</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_congener</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
